--- a/doc/drawings/2k_plot.xlsx
+++ b/doc/drawings/2k_plot.xlsx
@@ -613,7 +613,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
